--- a/.pic/Labs/lab_13_periph/fig_02.xlsx
+++ b/.pic/Labs/lab_13_periph/fig_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_12_periph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_13_periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9DD45-DEB8-41A8-B997-E755E61C99B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD1FC7-732E-472E-A51A-08F8F66F088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="285" windowWidth="17400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>(R) Непрочитанные данные</t>
   </si>
   <si>
-    <t>(W) Отправляемые данные</t>
-  </si>
-  <si>
     <t>—</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>0x00002FFF</t>
+  </si>
+  <si>
+    <t>(RW) Отправляемые данные</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
@@ -905,10 +905,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -939,37 +939,37 @@
         <v>5</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -987,21 +987,21 @@
         <v>20</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>24</v>
@@ -1013,46 +1013,46 @@
         <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>14</v>
@@ -1085,22 +1085,22 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
@@ -1115,82 +1115,82 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -1211,31 +1211,31 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -1247,25 +1247,25 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="31"/>
     </row>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="2"/>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="2"/>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1344,53 +1344,53 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="38"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="29"/>
     </row>
